--- a/Reports/HumanizeAI Pro/HumanizaAI_Bug-report.xlsx
+++ b/Reports/HumanizeAI Pro/HumanizaAI_Bug-report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="277">
   <si>
     <t xml:space="preserve">Tester : </t>
   </si>
@@ -200,6 +200,18 @@
   </si>
   <si>
     <t>BR-028</t>
+  </si>
+  <si>
+    <t>BR-029</t>
+  </si>
+  <si>
+    <t>BR-030</t>
+  </si>
+  <si>
+    <t>BR-031</t>
+  </si>
+  <si>
+    <t>BR-032</t>
   </si>
   <si>
     <t/>
@@ -1182,13 +1194,130 @@
     <t>BR_029</t>
   </si>
   <si>
+    <t>The copy prompt doesn't show up when clicked.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Open </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>web app</t>
+    </r>
+  </si>
+  <si>
+    <t>When the user clicks the copy button, a prompt should appear with the message "Copied to clipboard."</t>
+  </si>
+  <si>
+    <t>No message appears when the copy button is clicked.</t>
+  </si>
+  <si>
+    <t>https://jam.dev/c/a4b1ae10-d607-4098-ac1d-a271c212a4a5</t>
+  </si>
+  <si>
     <t>BR_030</t>
+  </si>
+  <si>
+    <t>Password indicator failed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Open </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>web app</t>
+    </r>
+  </si>
+  <si>
+    <t>All inputs in the sign-in and sign-up fields should function flawlessly as intended.</t>
+  </si>
+  <si>
+    <t>Failed to sign up after entering the password, and even after updating it to meet the requirements, the issue persisted.</t>
+  </si>
+  <si>
+    <t>https://jam.dev/c/507d8b86-ee98-4b3f-9f77-f04863f8ed7e</t>
   </si>
   <si>
     <t>BR_031</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Open </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>web app</t>
+    </r>
+  </si>
+  <si>
+    <t>A password should meet the requirements of being at least 8 characters long and including a combination of symbols, letters, and numbers.</t>
+  </si>
+  <si>
+    <t>Password met the requirements but the signup process failed.</t>
+  </si>
+  <si>
+    <t>https://jam.dev/c/a003c45b-c55e-42b9-979d-06098fd87c27</t>
+  </si>
+  <si>
     <t>BR_032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terms of Use and Privacy Policy button failed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <sz val="12.0"/>
+      </rPr>
+      <t xml:space="preserve">1. Open </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Times New Roman"/>
+        <color rgb="FF1155CC"/>
+        <sz val="12.0"/>
+        <u/>
+      </rPr>
+      <t>web app</t>
+    </r>
+  </si>
+  <si>
+    <t>After entering the registration credentials, the user needs to click on the Terms of Use and Privacy button. Then, they can proceed by clicking the signup button.</t>
+  </si>
+  <si>
+    <t>The user can submit the form without selecting the terms of use and privacy policy button.</t>
+  </si>
+  <si>
+    <t>https://jam.dev/c/7eb55e28-96e5-44bd-9f8b-1d20f5ff389c</t>
   </si>
   <si>
     <t>BR_033</t>
@@ -1426,7 +1555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border/>
     <border>
       <left style="thin">
@@ -1491,16 +1620,11 @@
         <color rgb="FF000000"/>
       </top>
     </border>
-    <border>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="93">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1765,12 +1889,6 @@
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2140,6 +2258,7 @@
     <col customWidth="1" min="4" max="4" width="24.5"/>
     <col customWidth="1" min="5" max="5" width="17.13"/>
     <col customWidth="1" min="6" max="6" width="20.0"/>
+    <col customWidth="1" min="7" max="7" width="20.63"/>
     <col customWidth="1" min="8" max="8" width="19.88"/>
     <col customWidth="1" min="9" max="9" width="16.25"/>
     <col customWidth="1" min="10" max="10" width="14.13"/>
@@ -2204,7 +2323,7 @@
       </c>
       <c r="E3" s="8">
         <f>COUNTIF(Tahsin!K14:K1005, "High") + COUNTIF(Fahad!K8:K1004, "High")</f>
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -2301,7 +2420,7 @@
       </c>
       <c r="E7" s="17">
         <f>SUM(E3:E5)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -2835,48 +2954,50 @@
         <v>38</v>
       </c>
       <c r="B17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Landing Page")</f>
-        <v>Landing Page</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dashboard")</f>
+        <v>Dashboard</v>
       </c>
       <c r="C17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Header")</f>
-        <v>Header</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Dashboard")</f>
+        <v>Dashboard</v>
       </c>
       <c r="D17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The logo appears to be a bit small.")</f>
-        <v>The logo appears to be a bit small.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The copy prompt doesn't show up when clicked.")</f>
+        <v>The copy prompt doesn't show up when clicked.</v>
       </c>
       <c r="E17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in web browser")</f>
-        <v>User need to be in web browser</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
+        <v>User need to be in browser</v>
       </c>
       <c r="F17" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
         <v>1. Open web app</v>
       </c>
       <c r="G17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
-        <v>N/A</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cavowog889@kwifa.com
+pass: 112244557788")</f>
+        <v>cavowog889@kwifa.com
+pass: 112244557788</v>
       </c>
       <c r="H17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A website logo should grab users' attention and be visually appealing.")</f>
-        <v>A website logo should grab users' attention and be visually appealing.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"When the user clicks the copy button, a prompt should appear with the message ""Copied to clipboard.""")</f>
+        <v>When the user clicks the copy button, a prompt should appear with the message "Copied to clipboard."</v>
       </c>
       <c r="I17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A small-sized logo has been observed in the homepage header section.")</f>
-        <v>A small-sized logo has been observed in the homepage header section.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"No message appears when the copy button is clicked.")</f>
+        <v>No message appears when the copy button is clicked.</v>
       </c>
       <c r="J17" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K17" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low")</f>
-        <v>Low</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
       </c>
       <c r="L17" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/627db0fc-28db-436f-a1b2-d1b8cc923450")</f>
-        <v>https://jam.dev/c/627db0fc-28db-436f-a1b2-d1b8cc923450</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/a4b1ae10-d607-4098-ac1d-a271c212a4a5")</f>
+        <v>https://jam.dev/c/a4b1ae10-d607-4098-ac1d-a271c212a4a5</v>
       </c>
       <c r="M17" s="27"/>
       <c r="N17" s="27" t="str">
@@ -2910,12 +3031,12 @@
         <v>Header</v>
       </c>
       <c r="D18" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Header section size issue")</f>
-        <v>Header section size issue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The logo appears to be a bit small.")</f>
+        <v>The logo appears to be a bit small.</v>
       </c>
       <c r="E18" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
-        <v>User need to be in browser</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in web browser")</f>
+        <v>User need to be in web browser</v>
       </c>
       <c r="F18" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
@@ -2926,12 +3047,12 @@
         <v>N/A</v>
       </c>
       <c r="H18" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The header section size should match the client's requirements exactly.")</f>
-        <v>The header section size should match the client's requirements exactly.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A website logo should grab users' attention and be visually appealing.")</f>
+        <v>A website logo should grab users' attention and be visually appealing.</v>
       </c>
       <c r="I18" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The header section appears to be smaller than the client's requirements.")</f>
-        <v>The header section appears to be smaller than the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A small-sized logo has been observed in the homepage header section.")</f>
+        <v>A small-sized logo has been observed in the homepage header section.</v>
       </c>
       <c r="J18" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -2942,8 +3063,8 @@
         <v>Low</v>
       </c>
       <c r="L18" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/01c7fc2b-8290-4158-832a-562137b55e28")</f>
-        <v>https://jam.dev/c/01c7fc2b-8290-4158-832a-562137b55e28</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/627db0fc-28db-436f-a1b2-d1b8cc923450")</f>
+        <v>https://jam.dev/c/627db0fc-28db-436f-a1b2-d1b8cc923450</v>
       </c>
       <c r="M18" s="27"/>
       <c r="N18" s="27" t="str">
@@ -2973,12 +3094,12 @@
         <v>Landing Page</v>
       </c>
       <c r="C19" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Home")</f>
-        <v>Home</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Header")</f>
+        <v>Header</v>
       </c>
       <c r="D19" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Text font and color issue")</f>
-        <v>Text font and color issue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Header section size issue")</f>
+        <v>Header section size issue</v>
       </c>
       <c r="E19" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -2993,12 +3114,12 @@
         <v>N/A</v>
       </c>
       <c r="H19" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The font and color should match the client's requirements.")</f>
-        <v>The font and color should match the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The header section size should match the client's requirements exactly.")</f>
+        <v>The header section size should match the client's requirements exactly.</v>
       </c>
       <c r="I19" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The font size and text color do not match the client's requirements.")</f>
-        <v>The font size and text color do not match the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The header section appears to be smaller than the client's requirements.")</f>
+        <v>The header section appears to be smaller than the client's requirements.</v>
       </c>
       <c r="J19" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -3009,8 +3130,8 @@
         <v>Low</v>
       </c>
       <c r="L19" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/2637688e-9f2a-4a43-9490-d77286dc7be0")</f>
-        <v>https://jam.dev/c/2637688e-9f2a-4a43-9490-d77286dc7be0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/01c7fc2b-8290-4158-832a-562137b55e28")</f>
+        <v>https://jam.dev/c/01c7fc2b-8290-4158-832a-562137b55e28</v>
       </c>
       <c r="M19" s="27"/>
       <c r="N19" s="27" t="str">
@@ -3044,8 +3165,8 @@
         <v>Home</v>
       </c>
       <c r="D20" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The icon size is smaller than the client's requirement.")</f>
-        <v>The icon size is smaller than the client's requirement.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Text font and color issue")</f>
+        <v>Text font and color issue</v>
       </c>
       <c r="E20" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3060,12 +3181,12 @@
         <v>N/A</v>
       </c>
       <c r="H20" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The alignment and font should match the client's requirements.")</f>
-        <v>The alignment and font should match the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The font and color should match the client's requirements.")</f>
+        <v>The font and color should match the client's requirements.</v>
       </c>
       <c r="I20" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The icon appears to be smaller than the client's requirement.")</f>
-        <v>The icon appears to be smaller than the client's requirement.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The font size and text color do not match the client's requirements.")</f>
+        <v>The font size and text color do not match the client's requirements.</v>
       </c>
       <c r="J20" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -3076,8 +3197,8 @@
         <v>Low</v>
       </c>
       <c r="L20" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/9f5b1842-a1c3-4bd6-a0f0-b4e3cf772daf")</f>
-        <v>https://jam.dev/c/9f5b1842-a1c3-4bd6-a0f0-b4e3cf772daf</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/2637688e-9f2a-4a43-9490-d77286dc7be0")</f>
+        <v>https://jam.dev/c/2637688e-9f2a-4a43-9490-d77286dc7be0</v>
       </c>
       <c r="M20" s="27"/>
       <c r="N20" s="27" t="str">
@@ -3111,8 +3232,8 @@
         <v>Home</v>
       </c>
       <c r="D21" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of SEO Agency banner hold different context")</f>
-        <v>Content of SEO Agency banner hold different context</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The icon size is smaller than the client's requirement.")</f>
+        <v>The icon size is smaller than the client's requirement.</v>
       </c>
       <c r="E21" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3127,24 +3248,24 @@
         <v>N/A</v>
       </c>
       <c r="H21" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Banner content should match the client's requirements exactly.")</f>
-        <v>Banner content should match the client's requirements exactly.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The alignment and font should match the client's requirements.")</f>
+        <v>The alignment and font should match the client's requirements.</v>
       </c>
       <c r="I21" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A difference in the banner content has been noticed.")</f>
-        <v>A difference in the banner content has been noticed.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The icon appears to be smaller than the client's requirement.")</f>
+        <v>The icon appears to be smaller than the client's requirement.</v>
       </c>
       <c r="J21" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K21" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medium")</f>
-        <v>Medium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low")</f>
+        <v>Low</v>
       </c>
       <c r="L21" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/8f1ec445-48c1-43a2-99a3-8ae5b5b900a3")</f>
-        <v>https://jam.dev/c/8f1ec445-48c1-43a2-99a3-8ae5b5b900a3</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/9f5b1842-a1c3-4bd6-a0f0-b4e3cf772daf")</f>
+        <v>https://jam.dev/c/9f5b1842-a1c3-4bd6-a0f0-b4e3cf772daf</v>
       </c>
       <c r="M21" s="27"/>
       <c r="N21" s="27" t="str">
@@ -3178,8 +3299,8 @@
         <v>Home</v>
       </c>
       <c r="D22" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Student banner hold different context")</f>
-        <v>Content of Student banner hold different context</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of SEO Agency banner hold different context")</f>
+        <v>Content of SEO Agency banner hold different context</v>
       </c>
       <c r="E22" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3210,8 +3331,8 @@
         <v>Medium</v>
       </c>
       <c r="L22" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/12e60943-b415-4bc0-9433-6002453d7a32")</f>
-        <v>https://jam.dev/c/12e60943-b415-4bc0-9433-6002453d7a32</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/8f1ec445-48c1-43a2-99a3-8ae5b5b900a3")</f>
+        <v>https://jam.dev/c/8f1ec445-48c1-43a2-99a3-8ae5b5b900a3</v>
       </c>
       <c r="M22" s="27"/>
       <c r="N22" s="27" t="str">
@@ -3245,8 +3366,8 @@
         <v>Home</v>
       </c>
       <c r="D23" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Marketer banner hold different context")</f>
-        <v>Content of Marketer banner hold different context</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Student banner hold different context")</f>
+        <v>Content of Student banner hold different context</v>
       </c>
       <c r="E23" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3277,8 +3398,8 @@
         <v>Medium</v>
       </c>
       <c r="L23" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/adc197c5-b754-498f-932e-33c1eaaccf48")</f>
-        <v>https://jam.dev/c/adc197c5-b754-498f-932e-33c1eaaccf48</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/12e60943-b415-4bc0-9433-6002453d7a32")</f>
+        <v>https://jam.dev/c/12e60943-b415-4bc0-9433-6002453d7a32</v>
       </c>
       <c r="M23" s="27"/>
       <c r="N23" s="27" t="str">
@@ -3312,8 +3433,8 @@
         <v>Home</v>
       </c>
       <c r="D24" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Content Creator banner hold different context")</f>
-        <v>Content of Content Creator banner hold different context</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Marketer banner hold different context")</f>
+        <v>Content of Marketer banner hold different context</v>
       </c>
       <c r="E24" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3344,8 +3465,8 @@
         <v>Medium</v>
       </c>
       <c r="L24" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/4099e7d9-2aef-4774-bbbd-84d4ac4e3fb0")</f>
-        <v>https://jam.dev/c/4099e7d9-2aef-4774-bbbd-84d4ac4e3fb0</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/adc197c5-b754-498f-932e-33c1eaaccf48")</f>
+        <v>https://jam.dev/c/adc197c5-b754-498f-932e-33c1eaaccf48</v>
       </c>
       <c r="M24" s="27"/>
       <c r="N24" s="27" t="str">
@@ -3379,8 +3500,8 @@
         <v>Home</v>
       </c>
       <c r="D25" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Resume/CV banner context missing in client requirement")</f>
-        <v>Content of Resume/CV banner context missing in client requirement</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Content Creator banner hold different context")</f>
+        <v>Content of Content Creator banner hold different context</v>
       </c>
       <c r="E25" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3411,8 +3532,8 @@
         <v>Medium</v>
       </c>
       <c r="L25" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/b681f39d-9576-4240-9220-348dc31d9092")</f>
-        <v>https://jam.dev/c/b681f39d-9576-4240-9220-348dc31d9092</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/4099e7d9-2aef-4774-bbbd-84d4ac4e3fb0")</f>
+        <v>https://jam.dev/c/4099e7d9-2aef-4774-bbbd-84d4ac4e3fb0</v>
       </c>
       <c r="M25" s="27"/>
       <c r="N25" s="27" t="str">
@@ -3438,16 +3559,16 @@
         <v>47</v>
       </c>
       <c r="B26" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pricing")</f>
-        <v>Pricing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Landing Page")</f>
+        <v>Landing Page</v>
       </c>
       <c r="C26" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pricing")</f>
-        <v>Pricing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Home")</f>
+        <v>Home</v>
       </c>
       <c r="D26" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Banner content missing")</f>
-        <v>Banner content missing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Content of Resume/CV banner context missing in client requirement")</f>
+        <v>Content of Resume/CV banner context missing in client requirement</v>
       </c>
       <c r="E26" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3462,24 +3583,24 @@
         <v>N/A</v>
       </c>
       <c r="H26" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pricing content should align exactly with the client's requirements.")</f>
-        <v>Pricing content should align exactly with the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Banner content should match the client's requirements exactly.")</f>
+        <v>Banner content should match the client's requirements exactly.</v>
       </c>
       <c r="I26" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The pricing category and banner content don't align with the client's specifications.")</f>
-        <v>The pricing category and banner content don't align with the client's specifications.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A difference in the banner content has been noticed.")</f>
+        <v>A difference in the banner content has been noticed.</v>
       </c>
       <c r="J26" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K26" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
-        <v>High</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medium")</f>
+        <v>Medium</v>
       </c>
       <c r="L26" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/beb7985c-b9ce-4279-966f-8ddb524c65f7")</f>
-        <v>https://jam.dev/c/beb7985c-b9ce-4279-966f-8ddb524c65f7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/b681f39d-9576-4240-9220-348dc31d9092")</f>
+        <v>https://jam.dev/c/b681f39d-9576-4240-9220-348dc31d9092</v>
       </c>
       <c r="M26" s="27"/>
       <c r="N26" s="27" t="str">
@@ -3513,8 +3634,8 @@
         <v>Pricing</v>
       </c>
       <c r="D27" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Popular subscription package is not appearing.")</f>
-        <v>Popular subscription package is not appearing.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Banner content missing")</f>
+        <v>Banner content missing</v>
       </c>
       <c r="E27" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3529,24 +3650,24 @@
         <v>N/A</v>
       </c>
       <c r="H27" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The popular package should be highlighted on the price banner to help customers find the best deal.")</f>
-        <v>The popular package should be highlighted on the price banner to help customers find the best deal.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pricing content should align exactly with the client's requirements.")</f>
+        <v>Pricing content should align exactly with the client's requirements.</v>
       </c>
       <c r="I27" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The popular package is not appearing in the price banner as per the client's requirement.")</f>
-        <v>The popular package is not appearing in the price banner as per the client's requirement.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The pricing category and banner content don't align with the client's specifications.")</f>
+        <v>The pricing category and banner content don't align with the client's specifications.</v>
       </c>
       <c r="J27" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K27" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medium")</f>
-        <v>Medium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
       </c>
       <c r="L27" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/ac834272-815f-4f86-9bc8-5a025791cb6c")</f>
-        <v>https://jam.dev/c/ac834272-815f-4f86-9bc8-5a025791cb6c</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/beb7985c-b9ce-4279-966f-8ddb524c65f7")</f>
+        <v>https://jam.dev/c/beb7985c-b9ce-4279-966f-8ddb524c65f7</v>
       </c>
       <c r="M27" s="27"/>
       <c r="N27" s="27" t="str">
@@ -3580,8 +3701,8 @@
         <v>Pricing</v>
       </c>
       <c r="D28" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Design and alignment problem.")</f>
-        <v>Design and alignment problem.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Popular subscription package is not appearing.")</f>
+        <v>Popular subscription package is not appearing.</v>
       </c>
       <c r="E28" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3596,12 +3717,12 @@
         <v>N/A</v>
       </c>
       <c r="H28" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Design and alignment should match the client's requirements.")</f>
-        <v>Design and alignment should match the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The popular package should be highlighted on the price banner to help customers find the best deal.")</f>
+        <v>The popular package should be highlighted on the price banner to help customers find the best deal.</v>
       </c>
       <c r="I28" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A different design has been noticed in the web app.")</f>
-        <v>A different design has been noticed in the web app.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The popular package is not appearing in the price banner as per the client's requirement.")</f>
+        <v>The popular package is not appearing in the price banner as per the client's requirement.</v>
       </c>
       <c r="J28" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -3612,8 +3733,8 @@
         <v>Medium</v>
       </c>
       <c r="L28" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/7b0d1360-907f-477d-aa18-29bfa019046d")</f>
-        <v>https://jam.dev/c/7b0d1360-907f-477d-aa18-29bfa019046d</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/ac834272-815f-4f86-9bc8-5a025791cb6c")</f>
+        <v>https://jam.dev/c/ac834272-815f-4f86-9bc8-5a025791cb6c</v>
       </c>
       <c r="M28" s="27"/>
       <c r="N28" s="27" t="str">
@@ -3647,8 +3768,8 @@
         <v>Pricing</v>
       </c>
       <c r="D29" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Delay in the price indicator.")</f>
-        <v>Delay in the price indicator.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Design and alignment problem.")</f>
+        <v>Design and alignment problem.</v>
       </c>
       <c r="E29" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3663,24 +3784,24 @@
         <v>N/A</v>
       </c>
       <c r="H29" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A dynamic response in the web app can greatly enhance client attraction.")</f>
-        <v>A dynamic response in the web app can greatly enhance client attraction.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Design and alignment should match the client's requirements.")</f>
+        <v>Design and alignment should match the client's requirements.</v>
       </c>
       <c r="I29" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A delay in the price bar has been observed when the user adjusts the amount by sliding the bar.")</f>
-        <v>A delay in the price bar has been observed when the user adjusts the amount by sliding the bar.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A different design has been noticed in the web app.")</f>
+        <v>A different design has been noticed in the web app.</v>
       </c>
       <c r="J29" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K29" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
-        <v>High</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medium")</f>
+        <v>Medium</v>
       </c>
       <c r="L29" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/2cd07e41-ee68-4520-8712-f3cbd9183201")</f>
-        <v>https://jam.dev/c/2cd07e41-ee68-4520-8712-f3cbd9183201</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/7b0d1360-907f-477d-aa18-29bfa019046d")</f>
+        <v>https://jam.dev/c/7b0d1360-907f-477d-aa18-29bfa019046d</v>
       </c>
       <c r="M29" s="27"/>
       <c r="N29" s="27" t="str">
@@ -3714,30 +3835,28 @@
         <v>Pricing</v>
       </c>
       <c r="D30" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The web app failed to load after completing the payment successfully.")</f>
-        <v>The web app failed to load after completing the payment successfully.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Delay in the price indicator.")</f>
+        <v>Delay in the price indicator.</v>
       </c>
       <c r="E30" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
         <v>User need to be in browser</v>
       </c>
       <c r="F30" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app
-2. Select price range and confirm payment")</f>
-        <v>1. Open web app
-2. Select price range and confirm payment</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
+        <v>1. Open web app</v>
       </c>
       <c r="G30" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="H30" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The user should be redirected to the home page after successfully purchasing the subscription.")</f>
-        <v>The user should be redirected to the home page after successfully purchasing the subscription.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A dynamic response in the web app can greatly enhance client attraction.")</f>
+        <v>A dynamic response in the web app can greatly enhance client attraction.</v>
       </c>
       <c r="I30" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Connection failed after successfully completing the subscription purchase.")</f>
-        <v>Connection failed after successfully completing the subscription purchase.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A delay in the price bar has been observed when the user adjusts the amount by sliding the bar.")</f>
+        <v>A delay in the price bar has been observed when the user adjusts the amount by sliding the bar.</v>
       </c>
       <c r="J30" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -3748,8 +3867,8 @@
         <v>High</v>
       </c>
       <c r="L30" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/c7d813c8-8ce3-411a-90a6-7d3a34ecabb5")</f>
-        <v>https://jam.dev/c/c7d813c8-8ce3-411a-90a6-7d3a34ecabb5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/2cd07e41-ee68-4520-8712-f3cbd9183201")</f>
+        <v>https://jam.dev/c/2cd07e41-ee68-4520-8712-f3cbd9183201</v>
       </c>
       <c r="M30" s="27"/>
       <c r="N30" s="27" t="str">
@@ -3783,28 +3902,30 @@
         <v>Pricing</v>
       </c>
       <c r="D31" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enterprise banner is missing.")</f>
-        <v>Enterprise banner is missing.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The web app failed to load after completing the payment successfully.")</f>
+        <v>The web app failed to load after completing the payment successfully.</v>
       </c>
       <c r="E31" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
         <v>User need to be in browser</v>
       </c>
       <c r="F31" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
-        <v>1. Open web app</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app
+2. Select price range and confirm payment")</f>
+        <v>1. Open web app
+2. Select price range and confirm payment</v>
       </c>
       <c r="G31" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
         <v>N/A</v>
       </c>
       <c r="H31" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enterprise subscription should be accessible and visible in the web app.")</f>
-        <v>Enterprise subscription should be accessible and visible in the web app.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The user should be redirected to the home page after successfully purchasing the subscription.")</f>
+        <v>The user should be redirected to the home page after successfully purchasing the subscription.</v>
       </c>
       <c r="I31" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The missing enterprise banner in the web app has been noticed.")</f>
-        <v>The missing enterprise banner in the web app has been noticed.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Connection failed after successfully completing the subscription purchase.")</f>
+        <v>Connection failed after successfully completing the subscription purchase.</v>
       </c>
       <c r="J31" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -3815,8 +3936,8 @@
         <v>High</v>
       </c>
       <c r="L31" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/bbef7505-46f7-40b3-9f5e-dafa0ea62449")</f>
-        <v>https://jam.dev/c/bbef7505-46f7-40b3-9f5e-dafa0ea62449</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/c7d813c8-8ce3-411a-90a6-7d3a34ecabb5")</f>
+        <v>https://jam.dev/c/c7d813c8-8ce3-411a-90a6-7d3a34ecabb5</v>
       </c>
       <c r="M31" s="27"/>
       <c r="N31" s="27" t="str">
@@ -3850,8 +3971,8 @@
         <v>Pricing</v>
       </c>
       <c r="D32" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Design and alignment issue")</f>
-        <v>Design and alignment issue</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enterprise banner is missing.")</f>
+        <v>Enterprise banner is missing.</v>
       </c>
       <c r="E32" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3866,24 +3987,24 @@
         <v>N/A</v>
       </c>
       <c r="H32" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The design and alignment should match the client's requirements.")</f>
-        <v>The design and alignment should match the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Enterprise subscription should be accessible and visible in the web app.")</f>
+        <v>Enterprise subscription should be accessible and visible in the web app.</v>
       </c>
       <c r="I32" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A different design has been noticed in the web app, which does not align with the client's requirements.")</f>
-        <v>A different design has been noticed in the web app, which does not align with the client's requirements.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The missing enterprise banner in the web app has been noticed.")</f>
+        <v>The missing enterprise banner in the web app has been noticed.</v>
       </c>
       <c r="J32" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K32" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medium")</f>
-        <v>Medium</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
       </c>
       <c r="L32" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/4afe52c8-6143-400d-93e4-ac8532486fb7")</f>
-        <v>https://jam.dev/c/4afe52c8-6143-400d-93e4-ac8532486fb7</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/bbef7505-46f7-40b3-9f5e-dafa0ea62449")</f>
+        <v>https://jam.dev/c/bbef7505-46f7-40b3-9f5e-dafa0ea62449</v>
       </c>
       <c r="M32" s="27"/>
       <c r="N32" s="27" t="str">
@@ -3917,8 +4038,8 @@
         <v>Pricing</v>
       </c>
       <c r="D33" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Discount percentage missing")</f>
-        <v>Discount percentage missing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Design and alignment issue")</f>
+        <v>Design and alignment issue</v>
       </c>
       <c r="E33" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -3933,12 +4054,12 @@
         <v>N/A</v>
       </c>
       <c r="H33" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The subscription banner should display the discount percentage.")</f>
-        <v>The subscription banner should display the discount percentage.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The design and alignment should match the client's requirements.")</f>
+        <v>The design and alignment should match the client's requirements.</v>
       </c>
       <c r="I33" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The discount price is displayed, but the percentage isn’t shown in the top corner of the banner.")</f>
-        <v>The discount price is displayed, but the percentage isn’t shown in the top corner of the banner.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A different design has been noticed in the web app, which does not align with the client's requirements.")</f>
+        <v>A different design has been noticed in the web app, which does not align with the client's requirements.</v>
       </c>
       <c r="J33" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -3949,8 +4070,8 @@
         <v>Medium</v>
       </c>
       <c r="L33" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/ecb91c2f-c915-4fce-9730-a06d161d0484")</f>
-        <v>https://jam.dev/c/ecb91c2f-c915-4fce-9730-a06d161d0484</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/4afe52c8-6143-400d-93e4-ac8532486fb7")</f>
+        <v>https://jam.dev/c/4afe52c8-6143-400d-93e4-ac8532486fb7</v>
       </c>
       <c r="M33" s="27"/>
       <c r="N33" s="27" t="str">
@@ -3976,16 +4097,16 @@
         <v>55</v>
       </c>
       <c r="B34" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
-        <v>Signup</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pricing")</f>
+        <v>Pricing</v>
       </c>
       <c r="C34" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Data Policy")</f>
-        <v>Data Policy</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Pricing")</f>
+        <v>Pricing</v>
       </c>
       <c r="D34" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Original content missing")</f>
-        <v>Original content missing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Discount percentage missing")</f>
+        <v>Discount percentage missing</v>
       </c>
       <c r="E34" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -4000,24 +4121,24 @@
         <v>N/A</v>
       </c>
       <c r="H34" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The client should provide the data policy, and it needs to be accurate.")</f>
-        <v>The client should provide the data policy, and it needs to be accurate.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The subscription banner should display the discount percentage.")</f>
+        <v>The subscription banner should display the discount percentage.</v>
       </c>
       <c r="I34" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The content for the data policy is missing.")</f>
-        <v>The content for the data policy is missing.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The discount price is displayed, but the percentage isn’t shown in the top corner of the banner.")</f>
+        <v>The discount price is displayed, but the percentage isn’t shown in the top corner of the banner.</v>
       </c>
       <c r="J34" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K34" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
-        <v>High</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Medium")</f>
+        <v>Medium</v>
       </c>
       <c r="L34" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/98dd060c-576d-4923-a95c-a990d46ecfd6")</f>
-        <v>https://jam.dev/c/98dd060c-576d-4923-a95c-a990d46ecfd6</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/ecb91c2f-c915-4fce-9730-a06d161d0484")</f>
+        <v>https://jam.dev/c/ecb91c2f-c915-4fce-9730-a06d161d0484</v>
       </c>
       <c r="M34" s="27"/>
       <c r="N34" s="27" t="str">
@@ -4047,12 +4168,12 @@
         <v>Signup</v>
       </c>
       <c r="C35" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
-        <v>Signup</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Data Policy")</f>
+        <v>Data Policy</v>
       </c>
       <c r="D35" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Logo seems to be small")</f>
-        <v>Logo seems to be small</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Original content missing")</f>
+        <v>Original content missing</v>
       </c>
       <c r="E35" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -4067,24 +4188,24 @@
         <v>N/A</v>
       </c>
       <c r="H35" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A website logo should grab users' attention and be visually appealing.")</f>
-        <v>A website logo should grab users' attention and be visually appealing.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The client should provide the data policy, and it needs to be accurate.")</f>
+        <v>The client should provide the data policy, and it needs to be accurate.</v>
       </c>
       <c r="I35" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A small-sized logo has been noticed on the signup page.")</f>
-        <v>A small-sized logo has been noticed on the signup page.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The content for the data policy is missing.")</f>
+        <v>The content for the data policy is missing.</v>
       </c>
       <c r="J35" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K35" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low")</f>
-        <v>Low</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
       </c>
       <c r="L35" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/1c564669-c315-4a2a-a02f-602b9132f7d5")</f>
-        <v>https://jam.dev/c/1c564669-c315-4a2a-a02f-602b9132f7d5</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/98dd060c-576d-4923-a95c-a990d46ecfd6")</f>
+        <v>https://jam.dev/c/98dd060c-576d-4923-a95c-a990d46ecfd6</v>
       </c>
       <c r="M35" s="27"/>
       <c r="N35" s="27" t="str">
@@ -4118,8 +4239,8 @@
         <v>Signup</v>
       </c>
       <c r="D36" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Missing the option to sign up with Apple ID.")</f>
-        <v>Missing the option to sign up with Apple ID.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Logo seems to be small")</f>
+        <v>Logo seems to be small</v>
       </c>
       <c r="E36" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -4134,24 +4255,24 @@
         <v>N/A</v>
       </c>
       <c r="H36" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The user should be able to signup using two methods as per the client's requirement.")</f>
-        <v>The user should be able to signup using two methods as per the client's requirement.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A website logo should grab users' attention and be visually appealing.")</f>
+        <v>A website logo should grab users' attention and be visually appealing.</v>
       </c>
       <c r="I36" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Missing Apple ID signup method on the signup page.")</f>
-        <v>Missing Apple ID signup method on the signup page.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A small-sized logo has been noticed on the signup page.")</f>
+        <v>A small-sized logo has been noticed on the signup page.</v>
       </c>
       <c r="J36" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
         <v>Fail</v>
       </c>
       <c r="K36" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
-        <v>High</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Low")</f>
+        <v>Low</v>
       </c>
       <c r="L36" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/df41064e-6b9b-4503-907e-1cd628585d14")</f>
-        <v>https://jam.dev/c/df41064e-6b9b-4503-907e-1cd628585d14</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/1c564669-c315-4a2a-a02f-602b9132f7d5")</f>
+        <v>https://jam.dev/c/1c564669-c315-4a2a-a02f-602b9132f7d5</v>
       </c>
       <c r="M36" s="27"/>
       <c r="N36" s="27" t="str">
@@ -4185,8 +4306,8 @@
         <v>Signup</v>
       </c>
       <c r="D37" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Failed to login with google")</f>
-        <v>Failed to login with google</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Missing the option to sign up with Apple ID.")</f>
+        <v>Missing the option to sign up with Apple ID.</v>
       </c>
       <c r="E37" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -4201,12 +4322,12 @@
         <v>N/A</v>
       </c>
       <c r="H37" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Users should be able to log in or sign up with their Google account.")</f>
-        <v>Users should be able to log in or sign up with their Google account.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The user should be able to signup using two methods as per the client's requirement.")</f>
+        <v>The user should be able to signup using two methods as per the client's requirement.</v>
       </c>
       <c r="I37" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unable to log in or sign up with a Google account.")</f>
-        <v>Unable to log in or sign up with a Google account.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Missing Apple ID signup method on the signup page.")</f>
+        <v>Missing Apple ID signup method on the signup page.</v>
       </c>
       <c r="J37" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -4217,8 +4338,8 @@
         <v>High</v>
       </c>
       <c r="L37" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/bcc54832-a96c-43df-a08e-750eab7e0b76")</f>
-        <v>https://jam.dev/c/bcc54832-a96c-43df-a08e-750eab7e0b76</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/df41064e-6b9b-4503-907e-1cd628585d14")</f>
+        <v>https://jam.dev/c/df41064e-6b9b-4503-907e-1cd628585d14</v>
       </c>
       <c r="M37" s="27"/>
       <c r="N37" s="27" t="str">
@@ -4248,12 +4369,12 @@
         <v>Signup</v>
       </c>
       <c r="C38" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Terms and use")</f>
-        <v>Terms and use</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
       </c>
       <c r="D38" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Original content missing")</f>
-        <v>Original content missing</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Failed to login with google")</f>
+        <v>Failed to login with google</v>
       </c>
       <c r="E38" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
@@ -4268,12 +4389,12 @@
         <v>N/A</v>
       </c>
       <c r="H38" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The client should provide the terms and use, and it needs to be accurate.")</f>
-        <v>The client should provide the terms and use, and it needs to be accurate.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Users should be able to log in or sign up with their Google account.")</f>
+        <v>Users should be able to log in or sign up with their Google account.</v>
       </c>
       <c r="I38" s="27" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The content for the terms and use is missing.")</f>
-        <v>The content for the terms and use is missing.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Unable to log in or sign up with a Google account.")</f>
+        <v>Unable to log in or sign up with a Google account.</v>
       </c>
       <c r="J38" s="27" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
@@ -4284,8 +4405,8 @@
         <v>High</v>
       </c>
       <c r="L38" s="28" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/0d7a142d-483b-4d1c-ae79-9696bfda932a")</f>
-        <v>https://jam.dev/c/0d7a142d-483b-4d1c-ae79-9696bfda932a</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/bcc54832-a96c-43df-a08e-750eab7e0b76")</f>
+        <v>https://jam.dev/c/bcc54832-a96c-43df-a08e-750eab7e0b76</v>
       </c>
       <c r="M38" s="27"/>
       <c r="N38" s="27" t="str">
@@ -4310,19 +4431,55 @@
       <c r="A39" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="27"/>
+      <c r="B39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="C39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="D39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Password indicator failed")</f>
+        <v>Password indicator failed</v>
+      </c>
+      <c r="E39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
+        <v>User need to be in browser</v>
+      </c>
+      <c r="F39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
+        <v>1. Open web app</v>
+      </c>
+      <c r="G39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"All inputs in the sign-in and sign-up fields should function flawlessly as intended.")</f>
+        <v>All inputs in the sign-in and sign-up fields should function flawlessly as intended.</v>
+      </c>
+      <c r="I39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Failed to sign up after entering the password, and even after updating it to meet the requirements, the issue persisted.")</f>
+        <v>Failed to sign up after entering the password, and even after updating it to meet the requirements, the issue persisted.</v>
+      </c>
+      <c r="J39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="K39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
+      </c>
+      <c r="L39" s="28" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/507d8b86-ee98-4b3f-9f77-f04863f8ed7e")</f>
+        <v>https://jam.dev/c/507d8b86-ee98-4b3f-9f77-f04863f8ed7e</v>
+      </c>
       <c r="M39" s="27"/>
-      <c r="N39" s="27"/>
+      <c r="N39" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fahad")</f>
+        <v>Fahad</v>
+      </c>
       <c r="O39" s="27"/>
       <c r="P39" s="27"/>
       <c r="Q39" s="25"/>
@@ -4338,24 +4495,60 @@
       <c r="AA39" s="25"/>
     </row>
     <row r="40">
-      <c r="A40" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="25"/>
-      <c r="K40" s="25"/>
-      <c r="L40" s="25"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="25"/>
-      <c r="O40" s="25"/>
-      <c r="P40" s="25"/>
+      <c r="A40" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="C40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="D40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Password indicator failed")</f>
+        <v>Password indicator failed</v>
+      </c>
+      <c r="E40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
+        <v>User need to be in browser</v>
+      </c>
+      <c r="F40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
+        <v>1. Open web app</v>
+      </c>
+      <c r="G40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"A password should meet the requirements of being at least 8 characters long and including a combination of symbols, letters, and numbers.")</f>
+        <v>A password should meet the requirements of being at least 8 characters long and including a combination of symbols, letters, and numbers.</v>
+      </c>
+      <c r="I40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Password met the requirements but the signup process failed.")</f>
+        <v>Password met the requirements but the signup process failed.</v>
+      </c>
+      <c r="J40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="K40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
+      </c>
+      <c r="L40" s="28" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/a003c45b-c55e-42b9-979d-06098fd87c27")</f>
+        <v>https://jam.dev/c/a003c45b-c55e-42b9-979d-06098fd87c27</v>
+      </c>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fahad")</f>
+        <v>Fahad</v>
+      </c>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25"/>
@@ -4369,24 +4562,60 @@
       <c r="AA40" s="25"/>
     </row>
     <row r="41">
-      <c r="A41" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="25"/>
-      <c r="P41" s="25"/>
+      <c r="A41" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="C41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="D41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE""")," Terms of Use and Privacy Policy button failed")</f>
+        <v> Terms of Use and Privacy Policy button failed</v>
+      </c>
+      <c r="E41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
+        <v>User need to be in browser</v>
+      </c>
+      <c r="F41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
+        <v>1. Open web app</v>
+      </c>
+      <c r="G41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"After entering the registration credentials, the user needs to click on the Terms of Use and Privacy button. Then, they can proceed by clicking the signup button.")</f>
+        <v>After entering the registration credentials, the user needs to click on the Terms of Use and Privacy button. Then, they can proceed by clicking the signup button.</v>
+      </c>
+      <c r="I41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The user can submit the form without selecting the terms of use and privacy policy button.")</f>
+        <v>The user can submit the form without selecting the terms of use and privacy policy button.</v>
+      </c>
+      <c r="J41" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="K41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
+      </c>
+      <c r="L41" s="28" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/7eb55e28-96e5-44bd-9f8b-1d20f5ff389c")</f>
+        <v>https://jam.dev/c/7eb55e28-96e5-44bd-9f8b-1d20f5ff389c</v>
+      </c>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fahad")</f>
+        <v>Fahad</v>
+      </c>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25"/>
@@ -4400,24 +4629,60 @@
       <c r="AA41" s="25"/>
     </row>
     <row r="42">
-      <c r="A42" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="25"/>
-      <c r="K42" s="25"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="25"/>
-      <c r="P42" s="25"/>
+      <c r="A42" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Signup")</f>
+        <v>Signup</v>
+      </c>
+      <c r="C42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Terms and use")</f>
+        <v>Terms and use</v>
+      </c>
+      <c r="D42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Original content missing")</f>
+        <v>Original content missing</v>
+      </c>
+      <c r="E42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"User need to be in browser")</f>
+        <v>User need to be in browser</v>
+      </c>
+      <c r="F42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1. Open web app")</f>
+        <v>1. Open web app</v>
+      </c>
+      <c r="G42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"N/A")</f>
+        <v>N/A</v>
+      </c>
+      <c r="H42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The client should provide the terms and use, and it needs to be accurate.")</f>
+        <v>The client should provide the terms and use, and it needs to be accurate.</v>
+      </c>
+      <c r="I42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"The content for the terms and use is missing.")</f>
+        <v>The content for the terms and use is missing.</v>
+      </c>
+      <c r="J42" s="26" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fail")</f>
+        <v>Fail</v>
+      </c>
+      <c r="K42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"High")</f>
+        <v>High</v>
+      </c>
+      <c r="L42" s="28" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"https://jam.dev/c/0d7a142d-483b-4d1c-ae79-9696bfda932a")</f>
+        <v>https://jam.dev/c/0d7a142d-483b-4d1c-ae79-9696bfda932a</v>
+      </c>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Fahad")</f>
+        <v>Fahad</v>
+      </c>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25"/>
@@ -4431,24 +4696,24 @@
       <c r="AA42" s="25"/>
     </row>
     <row r="43">
-      <c r="A43" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="25"/>
-      <c r="K43" s="25"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="25"/>
-      <c r="P43" s="25"/>
+      <c r="A43" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="27"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="27"/>
+      <c r="P43" s="27"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25"/>
@@ -4462,24 +4727,24 @@
       <c r="AA43" s="25"/>
     </row>
     <row r="44">
-      <c r="A44" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="25"/>
-      <c r="L44" s="25"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="25"/>
-      <c r="O44" s="25"/>
-      <c r="P44" s="25"/>
+      <c r="A44" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="27"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="27"/>
+      <c r="M44" s="27"/>
+      <c r="N44" s="27"/>
+      <c r="O44" s="27"/>
+      <c r="P44" s="27"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25"/>
@@ -4493,24 +4758,24 @@
       <c r="AA44" s="25"/>
     </row>
     <row r="45">
-      <c r="A45" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-      <c r="I45" s="25"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="25"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="25"/>
-      <c r="P45" s="25"/>
+      <c r="A45" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" s="27"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="27"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="27"/>
+      <c r="P45" s="27"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25"/>
@@ -4524,24 +4789,24 @@
       <c r="AA45" s="25"/>
     </row>
     <row r="46">
-      <c r="A46" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
+      <c r="A46" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="27"/>
+      <c r="P46" s="27"/>
       <c r="Q46" s="25"/>
       <c r="R46" s="25"/>
       <c r="S46" s="25"/>
@@ -4555,24 +4820,24 @@
       <c r="AA46" s="25"/>
     </row>
     <row r="47">
-      <c r="A47" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="25"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="25"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="25"/>
-      <c r="P47" s="25"/>
+      <c r="A47" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
+      <c r="G47" s="27"/>
+      <c r="H47" s="27"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="27"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="27"/>
+      <c r="P47" s="27"/>
       <c r="Q47" s="25"/>
       <c r="R47" s="25"/>
       <c r="S47" s="25"/>
@@ -4587,7 +4852,7 @@
     </row>
     <row r="48">
       <c r="A48" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B48" s="25"/>
       <c r="C48" s="25"/>
@@ -4618,7 +4883,7 @@
     </row>
     <row r="49">
       <c r="A49" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="25"/>
@@ -4649,7 +4914,7 @@
     </row>
     <row r="50">
       <c r="A50" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="25"/>
@@ -4680,57 +4945,57 @@
     </row>
     <row r="51">
       <c r="A51" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -4740,13 +5005,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J11:J39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="J11:J47">
       <formula1>"Fail,Pass"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O11:O39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="O11:O47">
       <formula1>"Solved,Unsolved"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K11:K39">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="K11:K47">
       <formula1>"Low,Medium,High"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4780,8 +5045,12 @@
     <hyperlink r:id="rId27" ref="L36"/>
     <hyperlink r:id="rId28" ref="L37"/>
     <hyperlink r:id="rId29" ref="L38"/>
+    <hyperlink r:id="rId30" ref="L39"/>
+    <hyperlink r:id="rId31" ref="L40"/>
+    <hyperlink r:id="rId32" ref="L41"/>
+    <hyperlink r:id="rId33" ref="L42"/>
   </hyperlinks>
-  <drawing r:id="rId30"/>
+  <drawing r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -4880,7 +5149,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
@@ -4912,7 +5181,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -4941,10 +5210,10 @@
     </row>
     <row r="5">
       <c r="A5" s="36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -5001,7 +5270,7 @@
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>19</v>
@@ -5057,40 +5326,40 @@
     </row>
     <row r="8">
       <c r="A8" s="39" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C8" s="40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E8" s="39" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G8" s="39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="I8" s="39" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>13</v>
       </c>
       <c r="L8" s="42" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M8" s="39"/>
       <c r="N8" s="39"/>
@@ -5137,40 +5406,40 @@
     </row>
     <row r="10">
       <c r="A10" s="40" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="40" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E10" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="J10" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K10" s="40" t="s">
         <v>13</v>
       </c>
       <c r="L10" s="46" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
@@ -5217,40 +5486,40 @@
     </row>
     <row r="12">
       <c r="A12" s="40" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C12" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E12" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="I12" s="40" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K12" s="40" t="s">
         <v>13</v>
       </c>
       <c r="L12" s="47" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M12" s="48"/>
       <c r="N12" s="40"/>
@@ -5297,40 +5566,40 @@
     </row>
     <row r="14">
       <c r="A14" s="40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E14" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H14" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="J14" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K14" s="40" t="s">
         <v>13</v>
       </c>
       <c r="L14" s="46" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M14" s="49"/>
       <c r="N14" s="40"/>
@@ -5377,40 +5646,40 @@
     </row>
     <row r="16">
       <c r="A16" s="40" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C16" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D16" s="40" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E16" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F16" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J16" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I16" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="M16" s="48"/>
       <c r="N16" s="40"/>
@@ -5457,40 +5726,40 @@
     </row>
     <row r="18">
       <c r="A18" s="40" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D18" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F18" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H18" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="I18" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J18" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I18" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J18" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K18" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="46" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="M18" s="48"/>
       <c r="N18" s="40"/>
@@ -5537,40 +5806,40 @@
     </row>
     <row r="20">
       <c r="A20" s="40" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B20" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C20" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D20" s="40" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E20" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="45" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J20" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H20" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K20" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L20" s="46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="M20" s="48"/>
       <c r="N20" s="40"/>
@@ -5617,40 +5886,40 @@
     </row>
     <row r="22">
       <c r="A22" s="40" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B22" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C22" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D22" s="40" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E22" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J22" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H22" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K22" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L22" s="46" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="M22" s="48"/>
       <c r="N22" s="40"/>
@@ -5697,40 +5966,40 @@
     </row>
     <row r="24">
       <c r="A24" s="40" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B24" s="40" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C24" s="40" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D24" s="40" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E24" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="40" t="s">
+        <v>105</v>
+      </c>
+      <c r="J24" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="J24" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K24" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="46" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M24" s="48"/>
       <c r="N24" s="48"/>
@@ -5777,40 +6046,40 @@
     </row>
     <row r="26">
       <c r="A26" s="40" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B26" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C26" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D26" s="40" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E26" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>126</v>
+      </c>
+      <c r="G26" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I26" s="40" t="s">
+        <v>127</v>
+      </c>
+      <c r="J26" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" s="50" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H26" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="I26" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="J26" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K26" s="40" t="s">
         <v>13</v>
       </c>
       <c r="L26" s="47" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M26" s="48"/>
       <c r="N26" s="48"/>
@@ -5857,40 +6126,40 @@
     </row>
     <row r="28">
       <c r="A28" s="40" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B28" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C28" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D28" s="40" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E28" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="40" t="s">
+        <v>132</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="J28" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F28" s="50" t="s">
-        <v>127</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H28" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="J28" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K28" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L28" s="46" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="M28" s="48"/>
       <c r="N28" s="48"/>
@@ -5937,40 +6206,40 @@
     </row>
     <row r="30">
       <c r="A30" s="40" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C30" s="40" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D30" s="40" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E30" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="G30" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H30" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="J30" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F30" s="50" t="s">
-        <v>134</v>
-      </c>
-      <c r="G30" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="I30" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="J30" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K30" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L30" s="46" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M30" s="48"/>
       <c r="N30" s="48"/>
@@ -6017,40 +6286,40 @@
     </row>
     <row r="32">
       <c r="A32" s="40" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B32" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C32" s="40" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D32" s="40" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E32" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="G32" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H32" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="I32" s="40" t="s">
+        <v>146</v>
+      </c>
+      <c r="J32" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F32" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="G32" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H32" s="40" t="s">
-        <v>141</v>
-      </c>
-      <c r="I32" s="40" t="s">
-        <v>142</v>
-      </c>
-      <c r="J32" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K32" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L32" s="46" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M32" s="48"/>
       <c r="N32" s="48"/>
@@ -6097,40 +6366,40 @@
     </row>
     <row r="34">
       <c r="A34" s="40" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B34" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D34" s="40" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="J34" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F34" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="G34" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H34" s="40" t="s">
-        <v>147</v>
-      </c>
-      <c r="I34" s="40" t="s">
-        <v>148</v>
-      </c>
-      <c r="J34" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K34" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L34" s="46" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M34" s="48"/>
       <c r="N34" s="48"/>
@@ -6177,40 +6446,40 @@
     </row>
     <row r="36">
       <c r="A36" s="40" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B36" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C36" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D36" s="40" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E36" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="G36" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>158</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>159</v>
+      </c>
+      <c r="J36" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F36" s="50" t="s">
-        <v>153</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H36" s="40" t="s">
-        <v>154</v>
-      </c>
-      <c r="I36" s="40" t="s">
-        <v>155</v>
-      </c>
-      <c r="J36" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K36" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L36" s="46" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M36" s="48"/>
       <c r="N36" s="48"/>
@@ -6257,40 +6526,40 @@
     </row>
     <row r="38">
       <c r="A38" s="40" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B38" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D38" s="40" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E38" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H38" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="I38" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="J38" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F38" s="50" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I38" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="J38" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K38" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L38" s="46" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M38" s="48"/>
       <c r="N38" s="48"/>
@@ -6337,40 +6606,40 @@
     </row>
     <row r="40">
       <c r="A40" s="40" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B40" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D40" s="40" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E40" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="50" t="s">
+        <v>169</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="I40" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="J40" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="G40" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H40" s="40" t="s">
-        <v>166</v>
-      </c>
-      <c r="I40" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="J40" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K40" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L40" s="46" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M40" s="48"/>
       <c r="N40" s="48"/>
@@ -6417,40 +6686,40 @@
     </row>
     <row r="42">
       <c r="A42" s="40" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B42" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C42" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D42" s="40" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="E42" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="50" t="s">
+        <v>175</v>
+      </c>
+      <c r="G42" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="40" t="s">
+        <v>176</v>
+      </c>
+      <c r="I42" s="40" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" s="50" t="s">
-        <v>171</v>
-      </c>
-      <c r="G42" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H42" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="I42" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="J42" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K42" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L42" s="46" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M42" s="48"/>
       <c r="N42" s="48"/>
@@ -6497,40 +6766,40 @@
     </row>
     <row r="44">
       <c r="A44" s="40" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C44" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D44" s="40" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E44" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>182</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>183</v>
+      </c>
+      <c r="J44" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F44" s="50" t="s">
-        <v>177</v>
-      </c>
-      <c r="G44" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="I44" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="J44" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K44" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L44" s="46" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="M44" s="48"/>
       <c r="N44" s="48"/>
@@ -6577,40 +6846,40 @@
     </row>
     <row r="46">
       <c r="A46" s="40" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D46" s="40" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E46" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F46" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="G46" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="40" t="s">
+        <v>188</v>
+      </c>
+      <c r="I46" s="40" t="s">
+        <v>189</v>
+      </c>
+      <c r="J46" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F46" s="50" t="s">
-        <v>183</v>
-      </c>
-      <c r="G46" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H46" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="I46" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J46" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K46" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L46" s="46" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M46" s="48"/>
       <c r="N46" s="48"/>
@@ -6657,40 +6926,40 @@
     </row>
     <row r="48">
       <c r="A48" s="40" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D48" s="40" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E48" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H48" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="I48" s="40" t="s">
+        <v>195</v>
+      </c>
+      <c r="J48" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F48" s="50" t="s">
-        <v>189</v>
-      </c>
-      <c r="G48" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H48" s="40" t="s">
-        <v>190</v>
-      </c>
-      <c r="I48" s="40" t="s">
-        <v>191</v>
-      </c>
-      <c r="J48" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K48" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L48" s="46" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="M48" s="40"/>
       <c r="N48" s="48"/>
@@ -6737,40 +7006,40 @@
     </row>
     <row r="50">
       <c r="A50" s="40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B50" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C50" s="40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D50" s="40" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E50" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F50" s="50" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="40" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="J50" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F50" s="50" t="s">
-        <v>195</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H50" s="40" t="s">
-        <v>196</v>
-      </c>
-      <c r="I50" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="J50" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K50" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L50" s="46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="M50" s="48"/>
       <c r="N50" s="48"/>
@@ -6817,40 +7086,40 @@
     </row>
     <row r="52">
       <c r="A52" s="40" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D52" s="40" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="E52" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F52" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="G52" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H52" s="40" t="s">
+        <v>207</v>
+      </c>
+      <c r="I52" s="40" t="s">
+        <v>208</v>
+      </c>
+      <c r="J52" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F52" s="50" t="s">
-        <v>202</v>
-      </c>
-      <c r="G52" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H52" s="40" t="s">
-        <v>203</v>
-      </c>
-      <c r="I52" s="40" t="s">
-        <v>204</v>
-      </c>
-      <c r="J52" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K52" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L52" s="47" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M52" s="48"/>
       <c r="N52" s="48"/>
@@ -6897,40 +7166,40 @@
     </row>
     <row r="54">
       <c r="A54" s="40" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B54" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D54" s="40" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E54" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" s="50" t="s">
+        <v>212</v>
+      </c>
+      <c r="G54" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H54" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="40" t="s">
+        <v>214</v>
+      </c>
+      <c r="J54" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F54" s="50" t="s">
-        <v>208</v>
-      </c>
-      <c r="G54" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H54" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="I54" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="J54" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K54" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L54" s="46" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M54" s="48"/>
       <c r="N54" s="48"/>
@@ -6977,40 +7246,40 @@
     </row>
     <row r="56">
       <c r="A56" s="40" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C56" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D56" s="40" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="E56" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F56" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="I56" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="J56" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F56" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="I56" s="40" t="s">
-        <v>216</v>
-      </c>
-      <c r="J56" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K56" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L56" s="46" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M56" s="48"/>
       <c r="N56" s="48"/>
@@ -7057,40 +7326,40 @@
     </row>
     <row r="58">
       <c r="A58" s="40" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C58" s="40" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D58" s="40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="E58" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="40" t="s">
+        <v>225</v>
+      </c>
+      <c r="I58" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="J58" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F58" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="G58" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="H58" s="40" t="s">
-        <v>221</v>
-      </c>
-      <c r="I58" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="J58" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K58" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L58" s="46" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="M58" s="48"/>
       <c r="N58" s="48"/>
@@ -7137,40 +7406,40 @@
     </row>
     <row r="60">
       <c r="A60" s="40" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C60" s="40" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D60" s="40" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="E60" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F60" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="40" t="s">
+        <v>233</v>
+      </c>
+      <c r="H60" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="I60" s="40" t="s">
+        <v>235</v>
+      </c>
+      <c r="J60" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F60" s="50" t="s">
-        <v>228</v>
-      </c>
-      <c r="G60" s="40" t="s">
-        <v>229</v>
-      </c>
-      <c r="H60" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="I60" s="40" t="s">
-        <v>231</v>
-      </c>
-      <c r="J60" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K60" s="40" t="s">
         <v>6</v>
       </c>
       <c r="L60" s="46" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M60" s="48"/>
       <c r="N60" s="48"/>
@@ -7217,40 +7486,40 @@
     </row>
     <row r="62">
       <c r="A62" s="40" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B62" s="40" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C62" s="40" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D62" s="40" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="E62" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F62" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="G62" s="40" t="s">
+        <v>241</v>
+      </c>
+      <c r="H62" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="I62" s="40" t="s">
+        <v>243</v>
+      </c>
+      <c r="J62" s="40" t="s">
         <v>79</v>
-      </c>
-      <c r="F62" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="G62" s="40" t="s">
-        <v>237</v>
-      </c>
-      <c r="H62" s="40" t="s">
-        <v>238</v>
-      </c>
-      <c r="I62" s="40" t="s">
-        <v>239</v>
-      </c>
-      <c r="J62" s="40" t="s">
-        <v>75</v>
       </c>
       <c r="K62" s="40" t="s">
         <v>9</v>
       </c>
       <c r="L62" s="46" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M62" s="48"/>
       <c r="N62" s="48"/>
@@ -7297,19 +7566,41 @@
     </row>
     <row r="64">
       <c r="A64" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>204</v>
+      </c>
+      <c r="D64" s="40" t="s">
+        <v>246</v>
+      </c>
+      <c r="E64" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F64" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="G64" s="40" t="s">
         <v>241</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="48"/>
-      <c r="F64" s="51"/>
-      <c r="G64" s="48"/>
-      <c r="H64" s="48"/>
-      <c r="I64" s="48"/>
-      <c r="J64" s="48"/>
-      <c r="K64" s="48"/>
-      <c r="L64" s="52"/>
+      <c r="H64" s="40" t="s">
+        <v>248</v>
+      </c>
+      <c r="I64" s="40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J64" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L64" s="46" t="s">
+        <v>250</v>
+      </c>
       <c r="M64" s="48"/>
       <c r="N64" s="48"/>
       <c r="O64" s="43"/>
@@ -7355,19 +7646,41 @@
     </row>
     <row r="66">
       <c r="A66" s="40" t="s">
-        <v>242</v>
-      </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="48"/>
-      <c r="E66" s="48"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="48"/>
-      <c r="H66" s="48"/>
-      <c r="I66" s="48"/>
-      <c r="J66" s="48"/>
-      <c r="K66" s="48"/>
-      <c r="L66" s="52"/>
+        <v>251</v>
+      </c>
+      <c r="B66" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="E66" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F66" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="G66" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H66" s="40" t="s">
+        <v>254</v>
+      </c>
+      <c r="I66" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="J66" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K66" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L66" s="46" t="s">
+        <v>256</v>
+      </c>
       <c r="M66" s="48"/>
       <c r="N66" s="48"/>
       <c r="O66" s="43"/>
@@ -7413,19 +7726,41 @@
     </row>
     <row r="68">
       <c r="A68" s="40" t="s">
-        <v>243</v>
-      </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="51"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
-      <c r="K68" s="48"/>
-      <c r="L68" s="52"/>
+        <v>257</v>
+      </c>
+      <c r="B68" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C68" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="40" t="s">
+        <v>252</v>
+      </c>
+      <c r="E68" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F68" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="G68" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="40" t="s">
+        <v>259</v>
+      </c>
+      <c r="I68" s="40" t="s">
+        <v>260</v>
+      </c>
+      <c r="J68" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L68" s="46" t="s">
+        <v>261</v>
+      </c>
       <c r="M68" s="48"/>
       <c r="N68" s="48"/>
       <c r="O68" s="43"/>
@@ -7471,19 +7806,41 @@
     </row>
     <row r="70">
       <c r="A70" s="40" t="s">
-        <v>244</v>
-      </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
-      <c r="K70" s="48"/>
-      <c r="L70" s="52"/>
+        <v>262</v>
+      </c>
+      <c r="B70" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="D70" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="E70" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F70" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="G70" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="H70" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="I70" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="J70" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="K70" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="L70" s="46" t="s">
+        <v>267</v>
+      </c>
       <c r="M70" s="48"/>
       <c r="N70" s="48"/>
       <c r="O70" s="43"/>
@@ -7529,7 +7886,7 @@
     </row>
     <row r="72">
       <c r="A72" s="40" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="B72" s="48"/>
       <c r="C72" s="48"/>
@@ -7587,7 +7944,7 @@
     </row>
     <row r="74">
       <c r="A74" s="40" t="s">
-        <v>246</v>
+        <v>269</v>
       </c>
       <c r="B74" s="48"/>
       <c r="C74" s="48"/>
@@ -7645,7 +8002,7 @@
     </row>
     <row r="76">
       <c r="A76" s="40" t="s">
-        <v>247</v>
+        <v>270</v>
       </c>
       <c r="B76" s="48"/>
       <c r="C76" s="48"/>
@@ -7703,7 +8060,7 @@
     </row>
     <row r="78">
       <c r="A78" s="40" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="B78" s="48"/>
       <c r="C78" s="48"/>
@@ -7761,7 +8118,7 @@
     </row>
     <row r="80">
       <c r="A80" s="40" t="s">
-        <v>249</v>
+        <v>272</v>
       </c>
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
@@ -7819,7 +8176,7 @@
     </row>
     <row r="82">
       <c r="A82" s="40" t="s">
-        <v>250</v>
+        <v>273</v>
       </c>
       <c r="B82" s="48"/>
       <c r="C82" s="48"/>
@@ -33676,8 +34033,16 @@
     <hyperlink r:id="rId54" ref="L60"/>
     <hyperlink r:id="rId55" ref="F62"/>
     <hyperlink r:id="rId56" ref="L62"/>
+    <hyperlink r:id="rId57" ref="F64"/>
+    <hyperlink r:id="rId58" ref="L64"/>
+    <hyperlink r:id="rId59" ref="F66"/>
+    <hyperlink r:id="rId60" ref="L66"/>
+    <hyperlink r:id="rId61" ref="F68"/>
+    <hyperlink r:id="rId62" ref="L68"/>
+    <hyperlink r:id="rId63" ref="F70"/>
+    <hyperlink r:id="rId64" ref="L70"/>
   </hyperlinks>
-  <drawing r:id="rId57"/>
+  <drawing r:id="rId65"/>
 </worksheet>
 </file>
 
@@ -35709,13 +36074,13 @@
         <v>18</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="E1" s="82" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="G1" s="85"/>
       <c r="H1" s="85"/>
@@ -35774,7 +36139,7 @@
       <c r="E2" s="86" t="str">
         <f>IF(D2="", "", TEXT((D2 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>3.57%</v>
+        <v>3.13%</v>
       </c>
       <c r="F2" s="87" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C2="""", """", 
@@ -35839,7 +36204,7 @@
       <c r="E3" s="88" t="str">
         <f>IF(D3="", "", TEXT((D3 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>3.57%</v>
+        <v>3.13%</v>
       </c>
       <c r="F3" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C3="""", """", 
@@ -35893,18 +36258,18 @@
     ('Main Report'!B13:B63=A4) * ('Main Report'!C13:C63=B4)
   )
 )
-"),"BR-003, BR-004, BR-005, BR-006")</f>
-        <v>BR-003, BR-004, BR-005, BR-006</v>
+"),"BR-003, BR-004, BR-005, BR-006, BR-007")</f>
+        <v>BR-003, BR-004, BR-005, BR-006, BR-007</v>
       </c>
       <c r="D4" s="86">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C4, "", ""))))
-"),4.0)</f>
-        <v>4</v>
+"),5.0)</f>
+        <v>5</v>
       </c>
       <c r="E4" s="88" t="str">
         <f>IF(D4="", "", TEXT((D4 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>14.29%</v>
+        <v>15.63%</v>
       </c>
       <c r="F4" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C4="""", """", 
@@ -35914,10 +36279,10 @@
       ""Low: "" &amp; COUNTIF(FILTER('Main Report'!K13:K63, ISNUMBER(MATCH('Main Report'!A13:A63, SPLIT(C4, "", ""), 0))), ""Low"")
    )
 )
-"),"High: 4
+"),"High: 5
 Medium: 0
 Low: 0")</f>
-        <v>High: 4
+        <v>High: 5
 Medium: 0
 Low: 0</v>
       </c>
@@ -35958,8 +36323,8 @@
     ('Main Report'!B14:B64=A5) * ('Main Report'!C14:C64=B5)
   )
 )
-"),"BR-007, BR-008")</f>
-        <v>BR-007, BR-008</v>
+"),"BR-008, BR-009")</f>
+        <v>BR-008, BR-009</v>
       </c>
       <c r="D5" s="86">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C5, "", ""))))
@@ -35969,7 +36334,7 @@
       <c r="E5" s="88" t="str">
         <f>IF(D5="", "", TEXT((D5 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>7.14%</v>
+        <v>6.25%</v>
       </c>
       <c r="F5" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C5="""", """", 
@@ -36023,8 +36388,8 @@
     ('Main Report'!B15:B65=A6) * ('Main Report'!C15:C65=B6)
   )
 )
-"),"BR-009, BR-010, BR-011, BR-012, BR-013, BR-014, BR-015")</f>
-        <v>BR-009, BR-010, BR-011, BR-012, BR-013, BR-014, BR-015</v>
+"),"BR-010, BR-011, BR-012, BR-013, BR-014, BR-015, BR-016")</f>
+        <v>BR-010, BR-011, BR-012, BR-013, BR-014, BR-015, BR-016</v>
       </c>
       <c r="D6" s="86">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C6, "", ""))))
@@ -36034,7 +36399,7 @@
       <c r="E6" s="88" t="str">
         <f>IF(D6="", "", TEXT((D6 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>25.00%</v>
+        <v>21.88%</v>
       </c>
       <c r="F6" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C6="""", """", 
@@ -36088,8 +36453,8 @@
     ('Main Report'!B16:B66=A7) * ('Main Report'!C16:C66=B7)
   )
 )
-"),"BR-016, BR-017, BR-018, BR-019, BR-020, BR-021, BR-022, BR-023")</f>
-        <v>BR-016, BR-017, BR-018, BR-019, BR-020, BR-021, BR-022, BR-023</v>
+"),"BR-017, BR-018, BR-019, BR-020, BR-021, BR-022, BR-023, BR-024")</f>
+        <v>BR-017, BR-018, BR-019, BR-020, BR-021, BR-022, BR-023, BR-024</v>
       </c>
       <c r="D7" s="86">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C7, "", ""))))
@@ -36099,7 +36464,7 @@
       <c r="E7" s="88" t="str">
         <f>IF(D7="", "", TEXT((D7 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>28.57%</v>
+        <v>25.00%</v>
       </c>
       <c r="F7" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C7="""", """", 
@@ -36153,8 +36518,8 @@
     ('Main Report'!B17:B67=A8) * ('Main Report'!C17:C67=B8)
   )
 )
-"),"BR-024")</f>
-        <v>BR-024</v>
+"),"BR-025")</f>
+        <v>BR-025</v>
       </c>
       <c r="D8" s="86">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C8, "", ""))))
@@ -36164,7 +36529,7 @@
       <c r="E8" s="88" t="str">
         <f>IF(D8="", "", TEXT((D8 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>3.57%</v>
+        <v>3.13%</v>
       </c>
       <c r="F8" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C8="""", """", 
@@ -36218,18 +36583,18 @@
     ('Main Report'!B18:B68=A9) * ('Main Report'!C18:C68=B9)
   )
 )
-"),"BR-025, BR-026, BR-027")</f>
-        <v>BR-025, BR-026, BR-027</v>
+"),"BR-026, BR-027, BR-028, BR-029, BR-030, BR-031")</f>
+        <v>BR-026, BR-027, BR-028, BR-029, BR-030, BR-031</v>
       </c>
       <c r="D9" s="86">
         <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C9, "", ""))))
-"),3.0)</f>
-        <v>3</v>
+"),6.0)</f>
+        <v>6</v>
       </c>
       <c r="E9" s="88" t="str">
         <f>IF(D9="", "", TEXT((D9 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v>10.71%</v>
+        <v>18.75%</v>
       </c>
       <c r="F9" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C9="""", """", 
@@ -36239,10 +36604,10 @@
       ""Low: "" &amp; COUNTIF(FILTER('Main Report'!K18:K68, ISNUMBER(MATCH('Main Report'!A18:A68, SPLIT(C9, "", ""), 0))), ""Low"")
    )
 )
-"),"High: 2
+"),"High: 5
 Medium: 0
 Low: 1")</f>
-        <v>High: 2
+        <v>High: 5
 Medium: 0
 Low: 1</v>
       </c>
@@ -36283,14 +36648,18 @@
     ('Main Report'!B19:B69=A10) * ('Main Report'!C19:C69=B10)
   )
 )
-"),"BR-028")</f>
-        <v>BR-028</v>
-      </c>
-      <c r="D10" s="88"/>
+"),"BR-032")</f>
+        <v>BR-032</v>
+      </c>
+      <c r="D10" s="86">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("COUNTA(UNIQUE(TRANSPOSE(SPLIT(C10, "", ""))))
+"),1.0)</f>
+        <v>1</v>
+      </c>
       <c r="E10" s="88" t="str">
         <f>IF(D10="", "", TEXT((D10 / 'Main Report'!$E$7), "0.00%"))
 </f>
-        <v/>
+        <v>3.13%</v>
       </c>
       <c r="F10" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C10="""", """", 
@@ -36381,9 +36750,9 @@
       <c r="AA11" s="85"/>
     </row>
     <row r="12">
-      <c r="A12" s="92"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92" t="str">
+      <c r="A12" s="90"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("", "", TRUE, 
   FILTER('Main Report'!A21:A71, 
     ('Main Report'!B21:B71=A12) * ('Main Report'!C21:C71=B12)
@@ -36392,13 +36761,13 @@
 "),"")</f>
         <v/>
       </c>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92" t="str">
+      <c r="D12" s="90"/>
+      <c r="E12" s="90" t="str">
         <f>IF(D12="", "", TEXT((D12 / 'Main Report'!$E$7), "0.00%"))
 </f>
         <v/>
       </c>
-      <c r="F12" s="93" t="str">
+      <c r="F12" s="91" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C12="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K21:K71, ISNUMBER(MATCH('Main Report'!A21:A71, SPLIT(C12, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36432,9 +36801,9 @@
       <c r="AA12" s="85"/>
     </row>
     <row r="13">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85" t="str">
+      <c r="A13" s="90"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("", "", TRUE, 
   FILTER('Main Report'!A22:A72, 
     ('Main Report'!B22:B72=A13) * ('Main Report'!C22:C72=B13)
@@ -36443,13 +36812,13 @@
 "),"")</f>
         <v/>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85" t="str">
+      <c r="D13" s="90"/>
+      <c r="E13" s="90" t="str">
         <f>IF(D13="", "", TEXT((D13 / 'Main Report'!$E$7), "0.00%"))
 </f>
         <v/>
       </c>
-      <c r="F13" s="94" t="str">
+      <c r="F13" s="91" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C13="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K22:K72, ISNUMBER(MATCH('Main Report'!A22:A72, SPLIT(C13, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36483,9 +36852,9 @@
       <c r="AA13" s="85"/>
     </row>
     <row r="14">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85" t="str">
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("TEXTJOIN("", "", TRUE, 
   FILTER('Main Report'!A23:A73, 
     ('Main Report'!B23:B73=A14) * ('Main Report'!C23:C73=B14)
@@ -36494,13 +36863,13 @@
 "),"")</f>
         <v/>
       </c>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85" t="str">
+      <c r="D14" s="88"/>
+      <c r="E14" s="88" t="str">
         <f>IF(D14="", "", TEXT((D14 / 'Main Report'!$E$7), "0.00%"))
 </f>
         <v/>
       </c>
-      <c r="F14" s="94" t="str">
+      <c r="F14" s="89" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C14="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K23:K73, ISNUMBER(MATCH('Main Report'!A23:A73, SPLIT(C14, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36551,7 +36920,7 @@
 </f>
         <v/>
       </c>
-      <c r="F15" s="94" t="str">
+      <c r="F15" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C15="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K24:K74, ISNUMBER(MATCH('Main Report'!A24:A74, SPLIT(C15, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36602,7 +36971,7 @@
 </f>
         <v/>
       </c>
-      <c r="F16" s="94" t="str">
+      <c r="F16" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C16="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K25:K75, ISNUMBER(MATCH('Main Report'!A25:A75, SPLIT(C16, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36653,7 +37022,7 @@
 </f>
         <v/>
       </c>
-      <c r="F17" s="94" t="str">
+      <c r="F17" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C17="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K26:K76, ISNUMBER(MATCH('Main Report'!A26:A76, SPLIT(C17, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36704,7 +37073,7 @@
 </f>
         <v/>
       </c>
-      <c r="F18" s="94" t="str">
+      <c r="F18" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C18="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K27:K77, ISNUMBER(MATCH('Main Report'!A27:A77, SPLIT(C18, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36755,7 +37124,7 @@
 </f>
         <v/>
       </c>
-      <c r="F19" s="94" t="str">
+      <c r="F19" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C19="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K28:K78, ISNUMBER(MATCH('Main Report'!A28:A78, SPLIT(C19, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36806,7 +37175,7 @@
 </f>
         <v/>
       </c>
-      <c r="F20" s="94" t="str">
+      <c r="F20" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C20="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K29:K79, ISNUMBER(MATCH('Main Report'!A29:A79, SPLIT(C20, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
@@ -36857,7 +37226,7 @@
 </f>
         <v/>
       </c>
-      <c r="F21" s="94" t="str">
+      <c r="F21" s="92" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(C21="""", """", 
    TEXTJOIN("", "", TRUE, 
       ""High: "" &amp; COUNTIF(FILTER('Main Report'!K30:K80, ISNUMBER(MATCH('Main Report'!A30:A80, SPLIT(C21, "", ""), 0))), ""High"") &amp; CHAR(10) &amp;
